--- a/outputs-GTDB-r202/g__Desulfovibrio.xlsx
+++ b/outputs-GTDB-r202/g__Desulfovibrio.xlsx
@@ -696,7 +696,7 @@
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>s__Desulfovibrio sp900546145</t>
+          <t>s__Desulfovibrio sp900546145(reject)</t>
         </is>
       </c>
     </row>
